--- a/biology/Zoologie/Gerbillus_nancillus/Gerbillus_nancillus.xlsx
+++ b/biology/Zoologie/Gerbillus_nancillus/Gerbillus_nancillus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gerbillus nancillus ou Gerbillus (Gerbillus) nancillus est une espèce qui fait partie des rongeurs. C'est une gerbille de la famille des Muridés que l'on rencontre au Mali, au Niger et au Soudan.
 </t>
